--- a/data/trans_dic/P25A_N_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25A_N_R2-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que tiene más de dos enfermedades crónicas discapacitantes</t>
+          <t>Población que tiene más de dos enfermedades crónicas discapacitantes (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,7 +657,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>6,32%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,37 +667,52 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>10,48%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>9,09%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>17,59%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>5,13%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>5,57%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>4,45%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>12,39%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,48; 12,6</t>
+          <t>0,0; 19,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,2; 11,5</t>
+          <t>0,0; 25,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,01; 15,55</t>
+          <t>0,0; 13,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,97; 12,33</t>
+          <t>4,07; 22,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,96; 9,32</t>
+          <t>2,35; 20,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,51; 8,11</t>
+          <t>7,53; 31,03</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,38; 7,45</t>
+          <t>1,36; 11,88</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>2,16; 11,58</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1,16; 9,92</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>6,53; 21,39</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>9,87%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>8,25%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>7,12%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>8,51%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,82%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>8,89%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>6,77%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>20,27%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>6,64%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>8,55%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>6,96%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>13,4%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,14; 12,98</t>
+          <t>3,59; 23,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,67; 14,47</t>
+          <t>1,98; 20,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,81; 12,18</t>
+          <t>1,83; 17,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,95; 9,19</t>
+          <t>1,77; 22,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,33; 14,97</t>
+          <t>0,0; 10,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,27; 12,7</t>
+          <t>3,05; 18,36</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,02; 8,46</t>
+          <t>1,73; 17,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,42; 12,03</t>
+          <t>10,1; 34,72</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,87; 10,78</t>
+          <t>2,77; 13,0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>4,15; 16,02</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>2,9; 13,74</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>6,32; 21,78</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>13,78%</t>
+          <t>8,74%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>12,43%</t>
+          <t>11,45%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>13,59%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,4%</t>
+          <t>11,84%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>7,78%</t>
+          <t>6,07%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>7,65%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>8,06%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>8,37%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,35; 8,1</t>
+          <t>0,0; 10,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,67; 9,49</t>
+          <t>0,0; 8,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,71; 6,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,41; 13,34</t>
+          <t>0,0; 11,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,86; 20,11</t>
+          <t>4,44; 15,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,79; 18,56</t>
+          <t>6,06; 19,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,72; 9,45</t>
+          <t>7,64; 21,89</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,51; 13,78</t>
+          <t>6,62; 20,21</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,04; 11,68</t>
+          <t>3,16; 11,14</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>4,22; 12,12</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>4,46; 13,71</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>4,63; 13,68</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,02%</t>
+          <t>8,83%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,47%</t>
+          <t>9,22%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,01%</t>
+          <t>9,33%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,28%</t>
+          <t>13,67%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>11,88%</t>
+          <t>12,95%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>18,6%</t>
+          <t>11,96%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>10,93%</t>
+          <t>19,29%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>10,79%</t>
+          <t>22,83%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>14,61%</t>
+          <t>11,05%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>10,69%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>14,56%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>18,38%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,3; 13,26</t>
+          <t>3,81; 16,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,53; 15,35</t>
+          <t>4,1; 17,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,5; 15,47</t>
+          <t>4,55; 17,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,83; 18,96</t>
+          <t>7,23; 22,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,52; 17,51</t>
+          <t>6,95; 20,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,83; 24,78</t>
+          <t>6,52; 19,31</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,94; 15,03</t>
+          <t>12,07; 27,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,8; 14,59</t>
+          <t>14,59; 31,59</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,97; 18,88</t>
+          <t>6,76; 16,0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>6,3; 15,6</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>10,21; 19,86</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>13,2; 24,44</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>12,72%</t>
+          <t>14,93%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>14,23%</t>
+          <t>19,66%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>19,86%</t>
+          <t>17,34%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>20,87%</t>
+          <t>21,46%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>21,26%</t>
+          <t>21,4%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>16,14%</t>
+          <t>23,01%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>13,94%</t>
+          <t>23,28%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>17,65%</t>
+          <t>17,7%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>13,66%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>21,1%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>20,13%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,04; 19,85</t>
+          <t>7,32; 25,76</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,89; 13,41</t>
+          <t>3,27; 16,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,88; 26,43</t>
+          <t>9,81; 36,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13,15; 29,06</t>
+          <t>8,42; 27,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>13,71; 30,11</t>
+          <t>11,34; 35,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>14,28; 29,43</t>
+          <t>12,47; 34,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,65; 21,42</t>
+          <t>13,25; 36,5</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>9,95; 19,58</t>
+          <t>12,35; 37,17</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>12,91; 24,9</t>
+          <t>11,25; 24,9</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>8,68; 20,2</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>13,73; 31,94</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>13,22; 28,29</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>12,24%</t>
+          <t>11,78%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>12,86%</t>
+          <t>12,73%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>10,84%</t>
+          <t>10,41%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>28,93%</t>
+          <t>22,3%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>17,5%</t>
+          <t>23,93%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>21,12%</t>
+          <t>21,92%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>21,62%</t>
+          <t>17,01%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>15,57%</t>
+          <t>39,3%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>17,0%</t>
+          <t>18,56%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>17,75%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>14,05%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>32,58%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,84; 21,56</t>
+          <t>3,89; 25,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,18; 22,39</t>
+          <t>4,74; 25,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,84; 19,84</t>
+          <t>2,6; 23,84</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>19,07; 40,98</t>
+          <t>11,27; 38,58</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>9,59; 26,33</t>
+          <t>12,5; 39,47</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>11,23; 33,2</t>
+          <t>10,49; 39,23</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>15,6; 30,34</t>
+          <t>6,51; 33,92</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>10,57; 22,09</t>
+          <t>23,39; 62,01</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>10,55; 25,72</t>
+          <t>10,64; 29,03</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>10,17; 29,4</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>6,75; 23,98</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>20,69; 48,1</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>6,66%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>7,5%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12,76%</t>
+          <t>11,62%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>13,08%</t>
+          <t>11,62%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>14,37%</t>
+          <t>13,46%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>10,34%</t>
+          <t>14,58%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>9,89%</t>
+          <t>22,58%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>10,73%</t>
+          <t>10,35%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>10,22%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>11,12%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>17,25%</t>
         </is>
       </c>
     </row>
@@ -1345,64 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,62; 9,92</t>
+          <t>6,13; 12,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,63; 8,57</t>
+          <t>4,43; 9,87</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,91; 9,3</t>
+          <t>4,92; 11,37</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10,51; 15,61</t>
+          <t>8,15; 15,64</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>10,63; 15,6</t>
+          <t>8,56; 15,4</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>11,84; 17,53</t>
+          <t>10,08; 17,03</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,73; 12,11</t>
+          <t>11,39; 18,46</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>8,26; 11,53</t>
+          <t>18,03; 29,53</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>8,93; 12,52</t>
+          <t>8,18; 12,86</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>8,1; 12,62</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>8,81; 13,73</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>13,85; 21,51</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que tiene más de dos enfermedades crónicas discapacitantes (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>6769</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>10511</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>5592</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>12588</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>11138</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>25594</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>12362</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>12588</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>11138</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>36105</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 20789</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 36652</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17900</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>4888; 26668</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2882; 24815</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>10963; 45142</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>3269; 28640</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>4872; 26147</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2900; 24797</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>19036; 62303</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>16662</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>11835</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>10980</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>19376</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>5509</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>11262</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>8551</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>32907</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>22171</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>23096</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>19531</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>52283</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>6059; 40346</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2842; 28846</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2830; 26829</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>4027; 51586</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 17074</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3865; 23257</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2183; 21856</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>16393; 56377</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>9243; 43416</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>11208; 43260</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>8139; 38549</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>24636; 84957</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>2785</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2307</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>6792</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>23082</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>23974</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>27238</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>28379</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>25867</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>26281</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>27238</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>35171</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 16521</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 11650</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 21288</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>11716; 41383</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>12690; 39904</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>15322; 43877</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>15874; 48444</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>13460; 47464</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>14512; 41652</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>15072; 46355</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>19451; 57445</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>16479</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>14870</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>14582</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>27529</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>28283</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>22246</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>33264</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>48579</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>44762</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>37115</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>47845</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>76108</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>7108; 30641</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>6607; 28167</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>7110; 26872</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>14553; 45625</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>15177; 44697</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>12116; 35909</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>20823; 47344</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>31046; 67197</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>27387; 64819</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>21880; 54141</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>33561; 65263</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>54667; 101204</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>23506</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>10784</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>24224</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>26812</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>24932</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>20074</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>21326</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>31913</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>48438</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>30858</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>45550</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>58725</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>11522; 40549</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>4324; 21643</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>12086; 45071</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>13014; 42977</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>13175; 41603</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>11698; 32151</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>12279; 33828</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>16931; 50949</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>30790; 68131</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>19612; 45632</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>29631; 68939</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>38555; 82529</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>12882</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>11119</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>9384</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>30741</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>32935</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>23051</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>18811</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>82842</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>45817</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>34170</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>28195</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>113583</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>4247; 27851</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>4137; 22124</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>2341; 21485</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>15536; 53175</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>17198; 54314</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>11032; 41244</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>7199; 37513</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>49304; 130718</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>26280; 71669</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>19572; 56592</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>13549; 48139</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>72139; 167707</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>79083</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>50915</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>59169</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>121762</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>120334</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>113194</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>120328</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>250213</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>199416</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>164108</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>179497</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>371975</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>54605; 106914</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>33849; 75393</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>38792; 89736</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>85362; 163815</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>88668; 159451</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>84760; 143268</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>93973; 152292</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>199757; 327237</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>157674; 247787</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>130034; 202624</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>142202; 221687</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>298589; 463658</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>